--- a/ZOOV212-prac-4-data.xlsx
+++ b/ZOOV212-prac-4-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shane Maguire\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\please_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21618B0-E764-469E-AA1B-21B6CF993506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039DAEF-E416-423D-AA31-BE3C2F3E3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -192,12 +192,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,70 +1634,70 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>2.6666666666666665</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>0.33333333333333393</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>9.3333333333333339</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>4.3333333333333428</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>58</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>19.333333333333332</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -1705,91 +1707,79 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>422.22222222222217</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>211.11111111111109</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>90.476190476190453</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>3.305679538229045E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>5.1432528497847176</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>2.3333333333333335</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>436.22222222222217</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>8</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1801,7 +1791,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1836,16 +1826,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>2.68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -1854,75 +1844,75 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>2.67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1.23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>9.33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>3.55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>19.329999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>4.79</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>5.76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>7</v>
       </c>
       <c r="I6" t="s">
@@ -1936,16 +1926,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>6.45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
       <c r="I7">
@@ -1959,16 +1949,16 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>9.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>18</v>
       </c>
       <c r="I8">
@@ -1982,16 +1972,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>10.4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>21</v>
       </c>
       <c r="I9">
@@ -2005,16 +1995,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>11.25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>19</v>
       </c>
     </row>

--- a/ZOOV212-prac-4-data.xlsx
+++ b/ZOOV212-prac-4-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\please_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039DAEF-E416-423D-AA31-BE3C2F3E3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC65B6-EDC9-4E70-893C-D9010C0BD122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
-    <t>Pool number</t>
-  </si>
-  <si>
-    <t>Pool classification</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
@@ -53,12 +47,6 @@
     <t>Large</t>
   </si>
   <si>
-    <t>Pool curcumference (metres)</t>
-  </si>
-  <si>
-    <t># species</t>
-  </si>
-  <si>
     <t>Rockpool size</t>
   </si>
   <si>
@@ -126,6 +114,18 @@
   </si>
   <si>
     <t>large</t>
+  </si>
+  <si>
+    <t>Pool_number</t>
+  </si>
+  <si>
+    <t>Pool_curcumference (metres)</t>
+  </si>
+  <si>
+    <t>Pool_classification</t>
+  </si>
+  <si>
+    <t>#species</t>
   </si>
 </sst>
 </file>
@@ -1625,34 +1625,34 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1703,35 +1703,35 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>422.22222222222217</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>436.22222222222217</v>
@@ -1790,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE60C9B-49A5-46F9-A63D-E9A97B923614}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1807,22 +1807,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1833,7 +1833,7 @@
         <v>2.68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -1842,7 +1842,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <v>2.67</v>
@@ -1856,13 +1856,13 @@
         <v>1.23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
         <v>9.33</v>
@@ -1876,13 +1876,13 @@
         <v>3.55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
         <v>19.329999999999998</v>
@@ -1896,7 +1896,7 @@
         <v>4.79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -1910,19 +1910,19 @@
         <v>5.76</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1933,7 +1933,7 @@
         <v>6.45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>9.5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>18</v>
@@ -1979,7 +1979,7 @@
         <v>10.4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
         <v>21</v>
@@ -2002,7 +2002,7 @@
         <v>11.25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
         <v>19</v>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FD2A37-C728-4410-9588-594D18419061}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
